--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/32_Eskişehir_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/32_Eskişehir_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92C08519-438B-45B7-8008-CA5A33DF0D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2B630EC-4314-4A02-8E79-5B931C6F2BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{FF50216F-CCB4-495E-A03B-32A419478A35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{F091584F-B96E-4364-98B8-0C57DD710B42}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -937,14 +937,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3C8078F5-55BB-4701-B5BB-2B86DA8950E2}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{04E97EE5-3593-41DF-A7F8-9C3E457F53EE}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{FA618F78-F3D3-4F68-98E2-31F702BE1B16}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{BA92FD98-0984-4601-AEB8-5FEFC34F7ED2}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{9310E6A8-A950-4980-947C-81F9E92B8BCA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{46302364-7884-43FC-8B94-9DD416CF4A25}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{835AF095-492B-4573-B9B6-3724BB5FA3F8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{5EC25AC1-975D-459D-9149-977C77488E3A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6B3A62C3-A6A7-4F9A-AB04-7E031A0EF1F8}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1611DC2A-67B8-420C-A05C-1BED27035ADA}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{CAF4EA74-836B-4282-9A98-9EF7D65DF2E8}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{EB4919FE-E8BA-4514-A79C-41E29CA9DF05}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{E999EB31-E09E-489D-933C-FC36C0888641}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{2CB32F39-7F53-4D0D-9E9B-B26550E9E2A0}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{B2EA3A77-0335-4462-9386-F11D677B04F3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{ECA0CECE-E818-43FA-BCBA-BA0DEE358902}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1314,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9991490B-BB22-4B9F-9747-A9C6C4D39F7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DCC1E5-434F-4B7F-9D5A-B974E19544B4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2581,18 +2581,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA6ABDAD-9F98-441E-893E-DA9CB704DF7C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42D51AEA-F682-41E0-B17E-AA3DC254680F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D5660FE6-D84E-4DC9-8080-A6AE87719F2B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{504D1020-7F97-4D14-848B-9B0F50FCCE1C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2283DF3-63F4-4D64-8A98-849A48FDCE5E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5AEBDFA6-A4E6-4504-984D-F4A1206846B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B5D73DE-C097-4BAF-B7F6-33ED969C20EE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3058AD0F-A848-40AC-81BC-8F16E4427A17}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5AF58F49-0C64-4953-B8BB-308740169E4F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E3225EE-E12E-47DD-AA9D-2228CA717FC6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A2B975D-0B18-4F51-88FC-19E33D96910B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F01A1E01-31CE-4280-B746-AFCEA2C95A81}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8D8E15E-CA39-4478-8570-DE19D5527B75}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF318F7F-3634-4D54-B670-546DD7C9B69B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{31F83513-0567-402E-B994-417308A4D4BE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BC781183-4863-4FF5-AD52-CA267322010C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26EBEC63-124A-4E7F-A061-16B0FB0C3059}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4297C9CE-AFE4-47B6-B692-62A8FF740891}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2DB8C76-62B8-433B-B4E5-F85927283C49}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{406677D7-35BF-4E7F-9FA3-D45B2509467C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AF1BE3EE-31DA-4B37-A322-8354B377F3EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8D8568B4-F83D-4C4F-B3B8-CBB67A54999D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41647EA7-6F3F-4AC8-B4D6-879BEA3FC47D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1D363865-0A3F-4D01-A607-9C64ADAB41F6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2605,7 +2605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1459865A-9503-4907-AE4C-FECE5042D75A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA3056A-A24C-4CD9-BB59-05E4190AC0C1}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3859,18 +3859,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59D902EE-6EAC-47AC-834B-052B44817486}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8AD84951-F24B-4E44-8A2B-D47B774C5D65}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D8C45E12-96D1-4213-ADE2-34862858BE1C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{133E6B06-4C43-4B7F-A1A0-60491A14E7F5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{378C990E-FE9B-44DA-9048-49CA5E92162C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E029B4EF-7B10-4936-8D50-3377B6B13CE3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5F3F636-EB54-4963-8016-5943434346C1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{406730D3-1DC7-4D06-A8D9-397CC748CB23}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F42D5857-D35B-4F0F-91BA-B45C3902C4B9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F934AD4D-1B89-4AC2-9A8D-3ABEE8EFCB87}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3B13574-9E3A-4DA2-A338-23CDB76BF91D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DCDA3BF1-0522-406B-8AAD-DD16E0303E53}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5731167-6A53-4C4A-A9E5-B92044EFB327}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CEFA4EE7-9F54-46F5-B4F1-21AB12531187}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{75A0CF6B-489A-4436-9C3D-C68580AA5E8B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{331B1228-C9A5-428D-AACE-7BE8684A99F8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2402A99-DE92-4F5A-A8E1-BCE92FB1EC56}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5C53EC04-BFD1-4D01-8145-66BFC8437BD7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{997C9A09-6BE5-4385-80FA-11C83BBE2DEC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1566A7F0-C339-46C8-AE52-E75F00E37CB5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D79DE029-A146-4B0B-869F-88D14ED9D34B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FAE9CA6A-0AA0-41B4-98F1-4C714E8E4E88}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6850E45D-C24A-469E-85BD-2C12C6D4D252}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE900BBD-4387-4D00-BA2B-5B13892B1C44}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3883,7 +3883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88CF9CE-2925-41B3-88E0-F167BDA87885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54FF1F8-453D-4C46-95B5-25C8E7B86682}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5131,18 +5131,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CCE4E75-0C6C-40FD-832A-D2F79360B9FA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C79960A6-EDC6-4402-B899-8720127F8298}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{173AF142-DEE9-4CB6-8709-025E1134FFBB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ED49F98E-2D71-405B-848C-88CE2B02CA37}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51B9EEE6-08C1-449C-9FF4-3E3C59FAB721}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5E776C6E-7563-43E1-8391-C0C010923C7D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5514B969-7A7F-43D5-A728-147245BF4270}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9599475A-6ADF-4B32-8D60-C47879A706F2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A109F44D-6C1B-4494-A196-EF06ACCA4CF5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31A06B1E-F3D6-4006-9263-75882CF2BCE5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06457533-79D6-4F9B-BA09-EF1595B2314A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5914E87E-F969-45EA-BD5C-5576B610D371}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B396D2D-3D6F-4DFA-AE8E-A62ED05C509B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33FF8DDF-1CB3-4383-A246-F969E86D6C03}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{978C2E2A-21FD-4017-80F2-1DEF45EF3537}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{550C973D-5C1D-4A3F-A257-C370445B830D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{156A02EA-9081-4016-BFEE-1814790F78AB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0B41046D-1D1C-4A2E-9AC7-80BA6DE510E1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EAADAFF6-D49F-449A-912B-7786CE8E936F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0020EB6-6566-4AAB-81DB-864EB33F5AFF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA423F4F-56A9-462F-8E3A-E25171CF87A5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F699739-6445-4E07-840B-1F81BF5A29FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1055F1AD-D24A-4506-9B09-9E5A7C4C5B18}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{97EB729C-8EF2-44A1-8F0D-792EC41426A1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5155,7 +5155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17BEF53-8C0F-403C-935E-473788034575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EE354E-3F14-41CB-94AB-1E04929B6A42}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6391,18 +6391,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E86CAF10-CF98-4721-9A98-8D83813B82C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09B3339B-D400-4DEE-AC27-879CE6D73B83}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{48344D86-A692-434B-82B4-3831C39A64FA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1ED1C213-C481-4BC8-B3AC-4BF8445B889A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A835B9B-2E36-4DF1-AFA6-A38923C31CCC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7F36983F-4167-4F1C-B530-1C4C29764363}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C5129B0-ACC9-4536-A27B-A1E8A402DD33}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E60E1EED-EAE5-4FAB-AD6F-5B3A5BE1FBCB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D2CC412C-B0C0-488E-8298-0A06C725DAA8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{56F979C5-048D-4557-A4AD-7CA80284BE19}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9E7C3FE-B097-41E1-8BA1-43723050B1CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{509580B7-9BB7-4A15-8D2C-854C4D7E48DC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3369E6AD-C89A-4C58-8661-A6E3426DEB81}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C8FA4F0-70A4-40F0-ADC8-5FF48580F288}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{63C2BE8D-5D7E-426F-8416-2F28CCBF0CC6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{04EC4A1F-B4D3-4B30-BCB5-30BF1BE3C7FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18E9EEEE-82BC-47A7-8D56-39BB23DA96B1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{31A091E8-CCA4-4133-B8E7-4082A9E9AC3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA4B3FAA-601D-422D-A2E1-853C6AE9A3AF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DCD7F75-4906-4B15-A657-75CF9E310060}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9857989D-DED1-4DFF-89E6-1653D27DCB1F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED7C66CB-5C77-45EB-A34F-BA5464FAC6A4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FEF05A9E-06CC-493C-8126-27812496421E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7EA372C0-C20C-4767-9297-D8B484EADFC4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6415,7 +6415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59627E32-AC4E-4BE5-BEB0-44E7E5E59174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F1CDEC-595E-4DD2-B569-0321A8A4B56B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7684,18 +7684,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5C23D1D-0218-471A-A623-D6975A0CF6A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{617B729A-9A86-4D67-AE31-C84F173F92D7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2BCFA7F4-F095-4596-99AB-AD56E971383A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F05A4E4C-B862-428D-8A59-66C380173C60}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F430433C-49D2-4997-95D6-9F7ECBB9F160}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EAEA806C-02AE-420F-BEEF-059212BF570C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E187D00-F1BC-44A6-8859-91CF03CD8234}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{665AB1EB-9472-4B82-8DB3-947F9219BC2D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6AD8D784-D581-464F-A8AB-70B74E392D51}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29CC8B07-C6A9-4815-BF40-63C0DD702DF8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EAA331FF-0700-43C5-ACF0-B6D34B70EA0A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7AC181D6-265C-4051-A323-51EB77763AE1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2786A797-ACCE-43D7-8566-8A20017D9677}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6E8463C-C9D9-4C75-8587-58D3D38198C3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{95FBCA62-96E7-453E-AEC5-1754E6EAA124}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{477C5DA6-BC9E-42CB-9344-E589E3443431}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9BF3D02A-6769-43F2-B8EB-6764F72A9FB9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{216ACE83-239C-4CAE-9C8E-3673344AEC3D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{407BF758-8B4C-47A7-A72A-E595E696953B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1F9C5C5-A88A-4E99-953F-4872DEDFE337}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{716E9981-E65E-4FB7-BBAA-EB99871121D2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E31F1815-B7B5-4231-A0C9-0E68BBE3269B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9BCA5F3F-2BB3-4E50-B85B-CF8BCCA17317}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{107BB97C-04EC-4461-B164-864EF846D33B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7708,7 +7708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0B156-9BCE-4FF0-AA5B-54280DBE33C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4390444-B24A-48B4-987F-4315507EE10B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8973,18 +8973,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B9F1022-7DC1-46F3-95D6-04EE088241C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89354F6D-DBD6-4937-964D-53B9A01AD6C1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{52671A2A-02FB-4BD5-8744-2BB8DFEEDB05}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3E79B934-27E5-4DA2-A7EB-BC823FDF3390}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D236E0DB-9078-4591-AA5D-D58FA4C5AAA3}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A8A20DF5-25DE-400C-BB0D-876A3282DDC9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{482A9B8C-8851-423F-9818-72594B11A78B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59849D95-C4E4-4B3A-8E61-F61E4A608518}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BE9CAD54-A6A6-49DF-86F0-1E4EBB5195B4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2FDFCD4C-9360-4EFD-9417-C0B540E3F2B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DED09ED7-BAC2-4209-80F7-216A01920C2A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5AD9BE84-B128-4BA4-B04A-3D942FAA14FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE841E0E-D76B-4F66-85E0-B72B95C4519E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED9094B9-BD46-465D-B462-22BE4F8D4BEA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1DAA9CF5-0BDA-4D8C-9144-0F7295A2383E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C2288F04-AFA3-4626-B336-0FC528F0A548}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D2F8610-EB9A-4146-BC6F-7F28EB2289D4}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{73E33B42-D55F-4C55-BA12-626FBCEAFB58}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12CA6AC7-9230-4020-867B-A6B76D0B04CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A2457E3A-1E1A-41A5-A094-CAEBDD0932D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D082184D-DE2B-460D-86EF-B0CF8B517F86}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BCEBD02C-2397-4187-920A-3376FFDDB226}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4396EDA-0182-42E7-ACAB-B3C25090C36C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2450AD9-6DFA-4C37-A179-0E721A79ED29}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8997,7 +8997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEAD989-B070-4711-B71B-3B1A048B551F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F10F6D5-AF49-4FF6-A1CC-ECD44DADB040}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10262,18 +10262,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFE8EE61-C323-4684-B7C1-BA04DE23B49D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D63565D0-0D14-4921-8644-C26273EC4286}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2D2F46EA-B25B-4C70-A8A5-050787B20843}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A4BEF9E8-5DC3-48A1-9492-738FCA8812F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B2EFB87-A760-4E70-8EF3-6768992BFB3B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E7E8053F-5B58-4C83-9DB0-34C10556A2E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4CD5B642-67FD-41DE-A0F7-166279D31761}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9E102C9-0489-4857-BD7D-C87F146D4E43}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A5363A4-36C4-46F7-BCB1-151879D0B410}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C44BD4B-C6E4-4B07-975C-32AA5B5C9000}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F091D85-D530-40E9-A092-51AE7CD71043}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7A34085-F59C-4C12-8BAC-EECFE9558225}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1956AA3F-3373-454B-8D2E-5835842F661F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{97808793-775D-4B49-92C6-BA67427408D5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1303E461-A58A-42BB-B878-1CA3E473AB64}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{06A43A5C-F747-4648-A9D1-18D518FA2263}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A75C044-0CDD-458B-BEC3-93563092EAE9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B859BA00-E0A7-481A-BA19-D0B5FF4AEEEA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77DD2F81-33FB-4132-81AB-F42630B2BC1A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{670F41C5-3601-4AC3-92EE-0F3D5A966B03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7ACB5B1D-856B-49A3-8E7A-5C85BC508D52}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F89BBA53-2BF6-467D-9391-EDE3E353996A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F80C7361-5332-4E11-B1C0-3510E8ABA441}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{44983506-B8EB-4D0F-8E5D-FFEEFEA8CBE8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10286,7 +10286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E944BC90-4253-46F1-9C3A-106C48C4057D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503E7E37-DE98-4295-BF95-F199E1108072}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11552,18 +11552,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16D9F130-91CE-47F6-81BA-CBC542BA5924}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6300320-A956-4D6C-8198-26534CC09EEA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4CDE195A-3446-40B8-83EE-709E2B7904A2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F5632B1A-199E-4A45-BF63-37E83E46DE08}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A515D475-8E0D-4608-A47C-722461D02F03}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{28CC6361-BB84-43EA-8036-1566A5C90011}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{480FEC51-3978-4456-A6F1-9605A1CF8C9C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{504CC0ED-B192-4F81-BF88-29C568663A48}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7ABFD48-1166-4C3A-9200-04A5E410180C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C4C08A2-1895-42C9-9891-E7B40ACF1E82}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BB82583-5228-4E2F-BABD-14D476216B63}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4411CC5D-5949-40A1-9157-74D2BA8302D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22EE4584-1023-4989-B670-6F4FC15A2655}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C82554EB-B19D-4912-8EB6-3D6C01D39413}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FC166978-FD04-44B7-80E1-78C639CCBEE0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{160A7C45-CBC3-4F10-A1F2-D46491C0F55A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E370124A-61A1-4BDD-9553-30D8A3622AB1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{123800A8-7CCC-4AD1-9BFD-2CF6CD64A015}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5577EBB7-0BDC-4717-BCB8-0C6DCCED4089}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5BE64F65-4966-400F-84C6-AF5854FFE423}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E5C2548-A5DE-45B9-AF25-EFAA1FF5FF9D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C6B331C5-1B90-4AAB-BE14-4BBE72FB7ECE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35C74F33-268F-4A82-835C-458E2A9E5A22}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B21C4FE-3CD8-485B-AA86-36BE5B615B1A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11576,7 +11576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DA8A47-B10D-490C-BFD5-614F1F19E90F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3963D48F-E330-4F2E-9B2F-87EF0E4A563B}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12842,18 +12842,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5B1A335-D522-46A7-91EB-4EE9B296FF42}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E9FA804-AC9F-416A-8758-A2613EF2FE62}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F5123AC5-DAE6-451A-B8F2-43A14661A812}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{77C24851-B8C0-40D3-A4B2-DEEDB925E76D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89AE8C04-9E18-4F5E-A52C-29B10CB5E819}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E307C215-6471-48FE-ADB5-0A93CAEFBF9C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28FF1014-5CAC-4546-8EB0-FF744DA77503}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0132C87-EAE1-48AF-969A-3C12D74132AA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{132F11C0-15AC-4430-98A3-A3CDF732978C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7105C013-EB04-4E42-8843-AB9E84C51D7A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{46644535-C446-4521-B173-EFB573C7E6C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{78C2CA74-6A44-44E0-9B18-478993328DCC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21AF8926-8B3D-4A87-AD86-EC2F65690B65}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6DFE795-3DDB-4EDB-A742-AE2F80632213}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{842AE858-7B3B-4F1A-85AA-8CD0BF71FEC6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F5492D46-E095-4154-B9C2-3185A7C737B3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{456553BB-9783-4C4E-8CCF-67F7CCA7DE77}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{41C09741-72F5-4DE2-B5B5-235FD7BC49FF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3B65D7F-F137-4F05-8365-F2E44C73BB25}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74364FBB-494A-48BF-842B-B7DEDD043D37}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{18D26997-87BF-4F12-B95D-CBF0D3F0C75B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F23F6130-4C61-462D-A06B-5E1914F3F61D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B42CC03-0DD3-4A6E-A33D-78371B8CD979}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{038CE10F-121A-459F-B967-1E1D1FD63370}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12866,7 +12866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A95587-B693-433E-AE33-68A084376403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FA4A15-4C98-4DF8-9076-D0A9A4DDCBE3}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14124,18 +14124,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B14D96C0-B8DA-4070-94A1-410E9DF3564C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A8A3213-8228-4F73-82FF-9CF94E4F3504}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{05ED4F44-CE9A-4A93-BCD3-FF49AF593D4B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F245D91F-0C1B-4055-A919-294748783935}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7915C377-45A3-463C-A016-C6AE7A04B301}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{890BBA91-168D-4DE2-ACD8-432325C350DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2CD1FDB-E982-43AD-A282-BDBB17234929}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{565F17E3-79B1-43B4-8ED9-A6EAAB1B95E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F248497-B91E-47CF-AFA9-DD15F833F712}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1E69FD1-ECC8-455C-A826-85E60C714103}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2486EDE7-ED18-4F7A-B8E4-C79E76F1BF5A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{119540A9-644A-49C3-A747-D73E5773D533}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2094930F-387C-450D-9218-4239292E9CB5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14234C15-3787-4A14-81A7-126837FB6560}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{454BCC10-7B2C-4116-8CE8-FE4BB946B575}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7964563F-AC47-4884-9CA6-769031F9857C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA1DCF52-4392-4FAA-B8CC-76663804BB7A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{64BC78FD-6804-4260-A8A8-812212B1221F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AA34B48-B6BF-4A0D-92B2-273BAB05AA5C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B13EF24-FBF7-4FDC-9287-4F2894EF95C2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E308590-0F71-447E-A2A1-ECF67AB6EC8A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F292A9D-4BCA-4FAB-A811-76E457BE32F3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{37633D2E-2A6D-4046-ABD7-BCD7E6B9693F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8B115E8-0107-4B68-8767-BA2F17DC6A9D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14148,7 +14148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EEC456-9777-4562-9631-D1E6F6ED85E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60570DD3-16BB-40C4-967C-6DA364B6C195}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15406,18 +15406,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1952ECC-D10A-4431-B615-6C3C89E60496}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{751F9EE8-AD1D-4788-9E00-FB2AC7E9B712}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6F5CBC5B-CD1A-43B9-A91E-D2394AC92A2A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CCFB6700-A64D-4FB7-9EAF-BB0D7CDCCCEA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{189B09E7-9F3B-473C-AAC1-3E475130EF2B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{51B7E518-5912-47F0-A7FD-E54D38F0683B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF14A417-DF70-4FFB-9D1B-FE946F3FBA2B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCC2AA72-2B24-4DD0-8E1B-9B4894EE86DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{98A7B639-F879-48DC-854E-B3E2D1CB44FA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3954BF20-29BF-40D8-860E-6FFE15769F10}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A43CD9D-EA51-47E4-BA78-8B587FF9C0B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{752B1AFE-2EBD-499E-A643-64103D7E9170}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BAF8E18-1547-4168-A4E5-047DEAF48521}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E59A30D-BB2E-4417-B4C2-DD4701DF2FCA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F7E19A42-785F-45D5-BB7E-433FFC5A4504}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E9029C42-87DF-45DD-B9D4-DB51A030F441}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2EDAA59-3784-4936-8067-9CAB4D631512}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{31284C82-0303-4DED-8573-0F462A0E911D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3F0C32B-AF7C-4BDA-AE2B-6B7FC078D801}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16BE5BDD-1208-4C28-A1D4-55E62F3E2C52}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B274959-E253-4E53-A859-D19D34FA68D9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DD572B66-7732-45FF-91B0-782404170FC1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75C4463B-0767-4F0C-9216-3FEB0519BE8E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB497C1D-2BEB-4A5E-806B-8682BA97DD24}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15430,7 +15430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD9F6ED-7178-47BA-90D6-FF0C5DCD87AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3633E5-55BD-47F0-8A40-04AC452F59D6}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16688,18 +16688,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28C004F2-C4EB-4D49-ABC2-C33D5CFF485A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9CC950E-F676-471A-B940-1DCC43CC1C7B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1B528331-4516-4A30-A0FB-70E83D6FC11A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B05A2DA3-F140-432B-BDB1-092E25462869}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1A39A80-4D5C-4075-B634-33353E119C23}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F4483D9D-F80F-46BA-B1C4-A0707FCFA0BF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B6A42EB-23BA-4C5A-B28D-A3DDF6638F4E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82157560-BE4B-44F1-8E60-66969EB7BAC8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CCA8B5F5-FBFE-42BB-97D0-ECE8C5C1EE14}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1DAB319D-AE57-40D2-A744-2208B52667D0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{52FB15F4-DDFF-4C6E-86F5-38A2D2187699}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E8F37E2-36E6-4FC6-8651-005827EC3ACE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{79DCF51B-4AC0-40A3-BF6D-9141604CC4A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B697ACA5-4BFC-4EEB-849E-19D85A1D117C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B7DF44BF-EE9F-4751-802E-FBC2A23DED72}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FAB26B45-B58A-4DA6-9C93-90AB6EF9C932}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{320B5CE8-4552-47E8-AC82-3A473F7A1846}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{19524494-CE8C-4420-A56F-57B3D93BE628}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D8FA872-DEDF-4888-B13F-6FDB9920739E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55750E81-958A-4032-A25B-590D894A3789}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{26705B62-C058-402A-B780-7AD708D60700}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6531301-B35E-4184-9CAF-65132E2EA6CE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FBF69EB-01DF-4A3E-A2D5-CE5DA01F68E1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB76539C-3485-4539-B858-9C4C25635479}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
